--- a/biology/Botanique/Padouk/Padouk.xlsx
+++ b/biology/Botanique/Padouk/Padouk.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le padouk est le nom d’un groupe d’espèces d’arbre du genre Pterocarpus (toutes les espèces du genre ne sont pas appelées padouk).
 Le padouk est parfois pris pour du bois de rose.
@@ -512,7 +524,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pterocarpus dalbergioides Roxb., padouk des Indes, padouk d’Andaman, maison, santal rouge ou narra
 Pterocarpus soyauxii Taub., padouk d’Afrique
